--- a/Kotoba/bab2.xlsx
+++ b/Kotoba/bab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzan\OneDrive\Documents\kotoba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BDD3E-6C3B-49A4-B6B4-A4E313741280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867FCFE-98F2-4CB5-AA74-FF6642E13B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2A3894E6-FD35-418F-A293-5D89D06F0D30}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
   <si>
     <t>Kanji</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>Pensil mekanik</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -932,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3999E00B-398B-447B-B0FB-C5C8E9C3A814}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -969,7 +972,9 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
@@ -984,7 +989,9 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -999,7 +1006,9 @@
       <c r="B4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1023,9 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1040,9 @@
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1057,9 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1080,9 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1080,7 +1097,9 @@
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1095,7 +1114,9 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1110,7 +1131,9 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1119,11 +1142,15 @@
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -1138,7 +1165,9 @@
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1153,7 +1182,9 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1162,11 +1193,15 @@
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1175,11 +1210,15 @@
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -1194,7 +1233,9 @@
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -1203,11 +1244,15 @@
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1216,11 +1261,15 @@
       <c r="B19" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1229,11 +1278,15 @@
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -1248,7 +1301,9 @@
       <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -1263,7 +1318,9 @@
       <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -1272,11 +1329,15 @@
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -1285,11 +1346,15 @@
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
@@ -1298,11 +1363,15 @@
       <c r="B25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
@@ -1311,11 +1380,15 @@
       <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -1324,11 +1397,15 @@
       <c r="B27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
@@ -1337,11 +1414,15 @@
       <c r="B28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -1350,11 +1431,15 @@
       <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
@@ -1369,7 +1454,9 @@
       <c r="D30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
@@ -1384,7 +1471,9 @@
       <c r="D31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
@@ -1393,11 +1482,15 @@
       <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -1406,11 +1499,15 @@
       <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -1419,11 +1516,15 @@
       <c r="B34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
@@ -1438,7 +1539,9 @@
       <c r="D35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -1453,7 +1556,9 @@
       <c r="D36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
@@ -1465,8 +1570,12 @@
       <c r="C37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
@@ -1481,7 +1590,9 @@
       <c r="D38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -1490,11 +1601,15 @@
       <c r="B39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -1509,7 +1624,9 @@
       <c r="D40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
@@ -1518,11 +1635,15 @@
       <c r="B41" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
@@ -1531,7 +1652,9 @@
       <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>133</v>
       </c>
@@ -1552,7 +1675,9 @@
       <c r="D43" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -1561,7 +1686,9 @@
       <c r="B44" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D44" s="2" t="s">
         <v>138</v>
       </c>
@@ -1576,11 +1703,15 @@
       <c r="B45" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
@@ -1589,11 +1720,15 @@
       <c r="B46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
@@ -1602,11 +1737,15 @@
       <c r="B47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
@@ -1615,9 +1754,15 @@
       <c r="B48" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
@@ -1632,17 +1777,26 @@
       <c r="D49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D50" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
